--- a/output/fit_clients/fit_round_330.xlsx
+++ b/output/fit_clients/fit_round_330.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2302832228.860255</v>
+        <v>2073241714.598206</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1117812718654426</v>
+        <v>0.110059564388902</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0303963054949422</v>
+        <v>0.04241874682162688</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1151416150.835737</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2341572602.594227</v>
+        <v>2090780589.294891</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1433735088163026</v>
+        <v>0.1609599799972953</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03078758026570319</v>
+        <v>0.04000190151813703</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1170786394.26098</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5226237715.971366</v>
+        <v>3569759951.216278</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1267374673274314</v>
+        <v>0.1230035249343681</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03821025579741363</v>
+        <v>0.02551301184731504</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>119</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2613118959.047988</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3355965217.257864</v>
+        <v>3487433763.412569</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09936051024773858</v>
+        <v>0.07327629206883675</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03603304657153133</v>
+        <v>0.05104274498307392</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>123</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1677982654.958242</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2448799076.756471</v>
+        <v>2172700741.852031</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1099847488765415</v>
+        <v>0.1122142200438103</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05358922366791489</v>
+        <v>0.05083139280596523</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>64</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1224399519.408311</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3155070629.056985</v>
+        <v>2792176084.457494</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09474469223998856</v>
+        <v>0.09258263222274185</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03353141617733715</v>
+        <v>0.04016270883245945</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>102</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1577535264.509358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3257462031.05816</v>
+        <v>3017151467.116788</v>
       </c>
       <c r="F8" t="n">
-        <v>0.206482291221066</v>
+        <v>0.211088815705968</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02531739121689052</v>
+        <v>0.02994051515594783</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>105</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1628731099.370428</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1712982134.143037</v>
+        <v>1789815183.860898</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1299459388759952</v>
+        <v>0.1563358475285134</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03537395926464199</v>
+        <v>0.02295458634463105</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>856491133.5008804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5869514587.813311</v>
+        <v>5078265288.886141</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1878676677573072</v>
+        <v>0.1437685722410983</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03426053169889338</v>
+        <v>0.04360263708721604</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>138</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2934757460.549492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3327183956.899118</v>
+        <v>3986552487.412494</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1207543987407327</v>
+        <v>0.1489985132020921</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03860920180812643</v>
+        <v>0.03106788557855793</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>136</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1663591944.218857</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2035765137.676023</v>
+        <v>2606926687.569601</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1677693277349269</v>
+        <v>0.1852883502547609</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03462568944134505</v>
+        <v>0.04098553717848541</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>113</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1017882498.541281</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3850819587.751151</v>
+        <v>4685728607.015768</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1015828017772802</v>
+        <v>0.06523353404727404</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02498944518902092</v>
+        <v>0.02963861960460719</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>111</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1925409856.388228</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3578416744.007505</v>
+        <v>3504307291.258109</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1485087718355829</v>
+        <v>0.1545818968893134</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03613111505752048</v>
+        <v>0.03566114043229273</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>105</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1789208364.563893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1400468087.928369</v>
+        <v>1125001683.301674</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1082149627120498</v>
+        <v>0.100662747975889</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03314545833163002</v>
+        <v>0.04744577992506354</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>700234106.9108728</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1879425595.434515</v>
+        <v>2243980841.0592</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1053728609829075</v>
+        <v>0.08628891309270308</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03375969623721849</v>
+        <v>0.04313021899967837</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>65</v>
-      </c>
-      <c r="J16" t="n">
-        <v>939712883.9903915</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4308964004.929359</v>
+        <v>3384399994.645694</v>
       </c>
       <c r="F17" t="n">
-        <v>0.118405963439307</v>
+        <v>0.1602102633880658</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03724278657952228</v>
+        <v>0.04124390752605858</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>96</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2154482021.807186</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2745782425.88393</v>
+        <v>4015722798.899244</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1751001882305499</v>
+        <v>0.1686081993410544</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03155697842550367</v>
+        <v>0.02897631062475169</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>108</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1372891261.591526</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1343640948.16771</v>
+        <v>1294562810.316617</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1440587437938853</v>
+        <v>0.1860710925817634</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01957915187486706</v>
+        <v>0.01652939923781895</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>671820586.9584104</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2464360959.235703</v>
+        <v>2010021277.759152</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1295917651888571</v>
+        <v>0.1572475503956657</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02627858203620266</v>
+        <v>0.03106868569597833</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1232180456.506103</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2610682770.697474</v>
+        <v>2074197909.353387</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09341571100797851</v>
+        <v>0.07281135683834696</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04131930621710897</v>
+        <v>0.0363141383974102</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1305341362.869232</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3161304242.154806</v>
+        <v>3953150855.196249</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1048913951810327</v>
+        <v>0.1361011677628708</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03521845168697715</v>
+        <v>0.04751959115951389</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>91</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1580652172.95745</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1160449437.842203</v>
+        <v>1206277959.448407</v>
       </c>
       <c r="F23" t="n">
-        <v>0.15912086113745</v>
+        <v>0.1469223743057227</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03894670524854447</v>
+        <v>0.03513565254525818</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>580224762.0656415</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4153730974.270914</v>
+        <v>3330385406.673745</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1307476456718268</v>
+        <v>0.09819668557360708</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03303130351951915</v>
+        <v>0.02541890857214932</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>96</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2076865444.799545</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1070752090.224084</v>
+        <v>1056677418.928182</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1205014723342694</v>
+        <v>0.1136552999191149</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02305963758583108</v>
+        <v>0.02664634657019611</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>535376092.8277064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>889256690.1932663</v>
+        <v>1254622254.740487</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1056028325332921</v>
+        <v>0.1249538991029163</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03847409296156729</v>
+        <v>0.0298900559900937</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>444628290.053646</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3317615483.441795</v>
+        <v>3725060384.287859</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1090511445986702</v>
+        <v>0.1058815966257271</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01693482003695801</v>
+        <v>0.02314945786190625</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1658807785.751714</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2929186598.091706</v>
+        <v>2917326089.888715</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09235904326322424</v>
+        <v>0.1301138022627999</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04746375516511084</v>
+        <v>0.04169269914247738</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1464593304.130895</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3623621874.306013</v>
+        <v>3785832306.022668</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09334962506361673</v>
+        <v>0.122629544567542</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03333072291043179</v>
+        <v>0.04055642657814235</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>145</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1811810980.131341</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1560323549.532067</v>
+        <v>1545445200.854365</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1335365626805828</v>
+        <v>0.1250096312270371</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0363022928229866</v>
+        <v>0.03305796634916604</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>780161762.1880389</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1421225840.190036</v>
+        <v>1035397419.031101</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07702525731509782</v>
+        <v>0.0795731756508159</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04883041895905844</v>
+        <v>0.04254544127127777</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>710612819.4912858</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1791137029.119145</v>
+        <v>1282091790.080876</v>
       </c>
       <c r="F32" t="n">
-        <v>0.102739167948469</v>
+        <v>0.09930408187668506</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0241950799936893</v>
+        <v>0.0349799455581815</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>895568643.2205726</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2644639940.361125</v>
+        <v>2001813331.223917</v>
       </c>
       <c r="F33" t="n">
-        <v>0.126925603150117</v>
+        <v>0.134195772269013</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05682406993330747</v>
+        <v>0.04106054352953308</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>99</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1322319996.068135</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1222607652.962769</v>
+        <v>1075328943.36178</v>
       </c>
       <c r="F34" t="n">
-        <v>0.120713228012568</v>
+        <v>0.09421931870169256</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02568184244873205</v>
+        <v>0.01734805132757851</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>611303827.8023614</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1169916693.068863</v>
+        <v>1086800722.876856</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09097261738236308</v>
+        <v>0.1100158854584312</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03447076323116201</v>
+        <v>0.03965773291300707</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>584958327.8784245</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2409457721.913947</v>
+        <v>2356995966.905766</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1508385270340167</v>
+        <v>0.1408851949198225</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02833152598379793</v>
+        <v>0.02210941445804404</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>83</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1204728890.205549</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2559147580.596629</v>
+        <v>2029030015.48334</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07028771028515</v>
+        <v>0.09677193721445528</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04231503808586527</v>
+        <v>0.03684812550253901</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>89</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1279573894.506932</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1505094947.351796</v>
+        <v>1520834203.184075</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09858038243837984</v>
+        <v>0.119696183174053</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02440300815929266</v>
+        <v>0.03098760423196106</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>752547522.2185374</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1929733539.066847</v>
+        <v>1888980284.121196</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1403492363451096</v>
+        <v>0.1504265745788405</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03255388060268715</v>
+        <v>0.02442139377487965</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>964866774.7710806</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1825497242.027606</v>
+        <v>1478412965.13339</v>
       </c>
       <c r="F40" t="n">
-        <v>0.15931002262983</v>
+        <v>0.1119900319737335</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05047277277181522</v>
+        <v>0.04487323756744755</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>912748505.7422515</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1875031021.899463</v>
+        <v>2410380898.930936</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1147481969155548</v>
+        <v>0.1040363521700087</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04561775376246045</v>
+        <v>0.03310609062445381</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>84</v>
-      </c>
-      <c r="J41" t="n">
-        <v>937515597.4157337</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4352961164.009967</v>
+        <v>4109342822.798369</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07676311025225142</v>
+        <v>0.1275184710559138</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04132842922977137</v>
+        <v>0.0454899286395673</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>107</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2176480635.582962</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2675418281.796004</v>
+        <v>2210167611.025887</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1291405279220679</v>
+        <v>0.1457503995556449</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0213421590625264</v>
+        <v>0.01905299619897697</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>118</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1337709171.912021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1619456038.048109</v>
+        <v>2053514722.996347</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07853855182506646</v>
+        <v>0.09934809772861003</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03008137031008191</v>
+        <v>0.03366738448357445</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>809728049.4364041</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1603792204.345057</v>
+        <v>1547079920.236269</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1421484213403833</v>
+        <v>0.1593949215580379</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03840811613471318</v>
+        <v>0.04734900465694256</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>801896053.0979369</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4580997129.659333</v>
+        <v>5439374378.67362</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1103275041119459</v>
+        <v>0.1354709284286059</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05304100084214142</v>
+        <v>0.05321953031411657</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>117</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2290498567.643223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3344631856.644102</v>
+        <v>4390229419.285748</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1529845131694328</v>
+        <v>0.1702843071944932</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03693590888282446</v>
+        <v>0.04838365724701636</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>88</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1672315890.366166</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4324567257.67836</v>
+        <v>3614818127.346325</v>
       </c>
       <c r="F48" t="n">
-        <v>0.107269636314093</v>
+        <v>0.07667332817315213</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03362625981368847</v>
+        <v>0.03378821232138608</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>107</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2162283644.350803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1783176256.173782</v>
+        <v>1834272404.843368</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1260293111333689</v>
+        <v>0.1578927963817358</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04038887603185717</v>
+        <v>0.03489041507109089</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>891588116.0907817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2974558261.906298</v>
+        <v>3458228595.683873</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1588160073735564</v>
+        <v>0.1133743941662449</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05156376671807767</v>
+        <v>0.04136710175982194</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>113</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1487279192.588206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1461568262.139331</v>
+        <v>1116573536.751411</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1477034518083582</v>
+        <v>0.137675079395055</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04649624764088679</v>
+        <v>0.03929968140393512</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>730784140.2405034</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5277315715.189354</v>
+        <v>3429862343.563822</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1358185280281849</v>
+        <v>0.1296378081736949</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0431370933919638</v>
+        <v>0.04750318913531804</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>136</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2638657838.900243</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3526500613.326891</v>
+        <v>2820254910.370018</v>
       </c>
       <c r="F53" t="n">
-        <v>0.180987914437569</v>
+        <v>0.1725929675908249</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02233136204459085</v>
+        <v>0.02384669698488234</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>96</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1763250302.718208</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3573685288.162245</v>
+        <v>4949892242.680684</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1643016695441356</v>
+        <v>0.1364073803206678</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04152401070455232</v>
+        <v>0.04972480961975171</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>107</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1786842674.694484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3843637450.959056</v>
+        <v>3804229297.712099</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2236032660717429</v>
+        <v>0.1674105583486214</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03220394163234461</v>
+        <v>0.02453082213960195</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1921818693.518019</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1370293512.717227</v>
+        <v>1186672776.364475</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1557367342157896</v>
+        <v>0.11464006296088</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0460211167650767</v>
+        <v>0.05317450794527436</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>685146817.8529497</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3679373643.284369</v>
+        <v>4439491702.105191</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1702384730275665</v>
+        <v>0.1210218445340926</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02116104872340217</v>
+        <v>0.01798075180707391</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>106</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1839686883.095298</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1568743295.088857</v>
+        <v>1440803969.240767</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1570643705492167</v>
+        <v>0.199696355362988</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02485101736655431</v>
+        <v>0.03727648301742758</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>784371672.4042795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3471814540.770949</v>
+        <v>3489408993.120287</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1184874103968189</v>
+        <v>0.1254433887358689</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04560729875054589</v>
+        <v>0.04397322943546281</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1735907271.823148</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2845715149.454664</v>
+        <v>2814153013.661228</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1326178425434729</v>
+        <v>0.1503694200384861</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02559557249125132</v>
+        <v>0.02595168087432113</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1422857628.899951</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2510412103.135348</v>
+        <v>2891201162.796963</v>
       </c>
       <c r="F61" t="n">
-        <v>0.179285977035337</v>
+        <v>0.1201259719232271</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0208797096523205</v>
+        <v>0.02322221835622461</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>113</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1255206078.211013</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2084433956.429545</v>
+        <v>1944803896.222071</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1414818220470666</v>
+        <v>0.1262375530263573</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04261233767447437</v>
+        <v>0.03308482373869506</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1042217048.926902</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3490846313.250681</v>
+        <v>3453468700.025122</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09849705504950731</v>
+        <v>0.08301702257427163</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03678198151563285</v>
+        <v>0.04188703487385675</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>97</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1745423241.754201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4550226088.266646</v>
+        <v>5275226466.021123</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1554649601493425</v>
+        <v>0.1328341297182376</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0276773414844058</v>
+        <v>0.02189286752242845</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>102</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2275113118.700026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3871555169.695328</v>
+        <v>3888748927.688483</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1286893404153567</v>
+        <v>0.1526055785021517</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02972693048041218</v>
+        <v>0.02650651376836458</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>119</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1935777611.107944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4259699163.168162</v>
+        <v>4471579644.762471</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1386110776687683</v>
+        <v>0.1328841224528749</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04103857119923467</v>
+        <v>0.04086065955446083</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>96</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2129849569.087793</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2509843421.700234</v>
+        <v>2979843495.832649</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07206457652699512</v>
+        <v>0.08880360567815483</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0389605647695714</v>
+        <v>0.04897028032272607</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>106</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1254921770.623183</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4368384816.893401</v>
+        <v>4747756248.478124</v>
       </c>
       <c r="F68" t="n">
-        <v>0.15773922945183</v>
+        <v>0.1427418651955213</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05096490699121735</v>
+        <v>0.03410262812619497</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2184192426.556991</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2120521094.011377</v>
+        <v>2054346698.908322</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1439980428100357</v>
+        <v>0.1476084646890851</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05473694172717414</v>
+        <v>0.03817641084853048</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1060260567.576021</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3346462484.36399</v>
+        <v>3552696445.983895</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06364767618647753</v>
+        <v>0.06543393987078888</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04477535271376139</v>
+        <v>0.04865935374970719</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>94</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1673231241.686238</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4613062565.514671</v>
+        <v>4307673140.112953</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1793057938099589</v>
+        <v>0.1212366351897646</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02680751848786551</v>
+        <v>0.02063705879626623</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>120</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2306531359.557139</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2211530426.515432</v>
+        <v>2249048189.602409</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0847562851009049</v>
+        <v>0.0765653223437919</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03995970192603102</v>
+        <v>0.03779907380703758</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1105765125.509622</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2503506086.125051</v>
+        <v>2975918354.646547</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07991909562658626</v>
+        <v>0.1026956561573724</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04507986468070319</v>
+        <v>0.05129912370654927</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>126</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1251753084.500364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2519228630.304799</v>
+        <v>3660225887.877986</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1280245514879869</v>
+        <v>0.1368584617919799</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02969904603219457</v>
+        <v>0.02417552670867138</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>113</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1259614422.132895</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1661660974.20109</v>
+        <v>1877155336.686024</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1334224198567004</v>
+        <v>0.1472768417268097</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03384226739572242</v>
+        <v>0.03001201115371764</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>830830483.0748008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4472787333.506768</v>
+        <v>3408298484.979947</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08973072023409247</v>
+        <v>0.1123403182013474</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02728865051394887</v>
+        <v>0.03380559281812792</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2236393671.301195</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1863215137.260783</v>
+        <v>1824523783.324418</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1728246407931659</v>
+        <v>0.1160823985093859</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02405689776141982</v>
+        <v>0.02922471754366743</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>931607609.9916507</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3554966282.56603</v>
+        <v>3228483971.986027</v>
       </c>
       <c r="F78" t="n">
-        <v>0.127794189873371</v>
+        <v>0.1170297461415978</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05484871891709415</v>
+        <v>0.03638861704719087</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>114</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1777483138.844952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1227362650.779834</v>
+        <v>1472642409.963037</v>
       </c>
       <c r="F79" t="n">
-        <v>0.162933941973546</v>
+        <v>0.1190340642653337</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0370066268244324</v>
+        <v>0.03613961468408119</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>613681311.8831648</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5358470332.265321</v>
+        <v>5238084246.271569</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09646756114754909</v>
+        <v>0.07928799650514805</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03588057904733846</v>
+        <v>0.03451822544559433</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>69</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2679235233.164979</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4375158098.564524</v>
+        <v>3216105828.833321</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1105278478230016</v>
+        <v>0.1315095004232964</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02327691182001441</v>
+        <v>0.03118019791161755</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>75</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2187579026.434986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5659930440.411955</v>
+        <v>4046547874.013039</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1579526459886636</v>
+        <v>0.1515325867929532</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02812201880744603</v>
+        <v>0.02009100739097839</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>116</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2829965167.329978</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1718631971.50238</v>
+        <v>1856584572.733978</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1017759965677695</v>
+        <v>0.1435622866737958</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04087455925517704</v>
+        <v>0.03614396159627335</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>859315936.0498838</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2049678997.36818</v>
+        <v>2417982091.05398</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1051068170286495</v>
+        <v>0.1106792703152614</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03436589520983639</v>
+        <v>0.05004781716973138</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1024839496.407978</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3566068204.988255</v>
+        <v>2913299249.509981</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1738698315462845</v>
+        <v>0.184914844443316</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04857921550971354</v>
+        <v>0.05391858813640381</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>124</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1783034225.148039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1755854177.465605</v>
+        <v>1726499592.711679</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1622285873440723</v>
+        <v>0.1279414135501185</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02532813643456497</v>
+        <v>0.02557369701347162</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>45</v>
-      </c>
-      <c r="J86" t="n">
-        <v>877927082.3962839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1076140412.629269</v>
+        <v>1115456858.118358</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1638059913512056</v>
+        <v>0.1215393499139909</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03460306478921683</v>
+        <v>0.03233868161059704</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>538070230.1644467</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3267449914.762937</v>
+        <v>2866999756.710548</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1419939137806944</v>
+        <v>0.1141691744081676</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02533996650549181</v>
+        <v>0.02499513836523199</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>130</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1633725014.257769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3132696856.933876</v>
+        <v>2462418361.889034</v>
       </c>
       <c r="F89" t="n">
-        <v>0.108671161343846</v>
+        <v>0.138792926403829</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03112783476879588</v>
+        <v>0.03158590809467023</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>110</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1566348456.855891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1897999106.029148</v>
+        <v>1352328561.875288</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1301209729370214</v>
+        <v>0.1030013631177076</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04338873453805543</v>
+        <v>0.03462354947552491</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>948999604.5800792</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1713681928.497899</v>
+        <v>1403456467.3797</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1455457088357251</v>
+        <v>0.1935977412275616</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04093563602341439</v>
+        <v>0.04363283535629564</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>856840974.689307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2967447650.261416</v>
+        <v>2502956261.679649</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08071883271935805</v>
+        <v>0.09106584185107297</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03892070264581601</v>
+        <v>0.04404952332714442</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>88</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1483723844.382147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3276168648.502439</v>
+        <v>3302028937.375549</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1010222115517224</v>
+        <v>0.1250469015051033</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04660973227539807</v>
+        <v>0.03363828098409839</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>103</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1638084371.679373</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2451564762.160875</v>
+        <v>2521800526.382155</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1653690096331876</v>
+        <v>0.1681201067371191</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03633068689113706</v>
+        <v>0.03232063404483609</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1225782438.202825</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2478270369.787009</v>
+        <v>2011123371.300832</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09676995653862916</v>
+        <v>0.09370104953591649</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0473167685962623</v>
+        <v>0.05065178442753427</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>79</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1239135222.55503</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1967407114.952878</v>
+        <v>1964725809.099054</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09309229856880355</v>
+        <v>0.1224332112934591</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0422104517885309</v>
+        <v>0.03919191890740963</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>983703547.9343053</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4744597486.011599</v>
+        <v>3363487635.772711</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1631980034513119</v>
+        <v>0.1744606319781212</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01951674970966165</v>
+        <v>0.02402168454942676</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>105</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2372298859.26834</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3023757177.732491</v>
+        <v>2802534739.337945</v>
       </c>
       <c r="F98" t="n">
-        <v>0.119235680965837</v>
+        <v>0.08267658908604196</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03026081992415252</v>
+        <v>0.02786817386132296</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1511878575.208371</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2939955706.326007</v>
+        <v>2958352662.369237</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0952628248668842</v>
+        <v>0.1089241952120624</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03202648841905153</v>
+        <v>0.0324112902361549</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>103</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1469977834.743312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3032203246.229685</v>
+        <v>4800489541.689028</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1672531828517339</v>
+        <v>0.1543511650828451</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01813954340605122</v>
+        <v>0.02198016768951882</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>102</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1516101616.530757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3085089359.368824</v>
+        <v>3399195518.432737</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1693185539405771</v>
+        <v>0.1546576019590419</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04025326294009937</v>
+        <v>0.03632109577161092</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>132</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1542544779.977723</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_330.xlsx
+++ b/output/fit_clients/fit_round_330.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2073241714.598206</v>
+        <v>1562424847.384983</v>
       </c>
       <c r="F2" t="n">
-        <v>0.110059564388902</v>
+        <v>0.1009408274480027</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04241874682162688</v>
+        <v>0.03765027033321774</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2090780589.294891</v>
+        <v>1985845452.225793</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1609599799972953</v>
+        <v>0.1180013314807289</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04000190151813703</v>
+        <v>0.03248511536525384</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3569759951.216278</v>
+        <v>4195323879.877203</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1230035249343681</v>
+        <v>0.1275357048975187</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02551301184731504</v>
+        <v>0.0269083092622998</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3487433763.412569</v>
+        <v>3638115459.271836</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07327629206883675</v>
+        <v>0.07768877787205916</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05104274498307392</v>
+        <v>0.03263527745570968</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2172700741.852031</v>
+        <v>2732692453.708661</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1122142200438103</v>
+        <v>0.1311375869902034</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05083139280596523</v>
+        <v>0.05479343198251869</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2792176084.457494</v>
+        <v>3123164635.874639</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09258263222274185</v>
+        <v>0.08680356938066452</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04016270883245945</v>
+        <v>0.03719606804153264</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3017151467.116788</v>
+        <v>2962264774.846121</v>
       </c>
       <c r="F8" t="n">
-        <v>0.211088815705968</v>
+        <v>0.2039593527287701</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02994051515594783</v>
+        <v>0.02181029840050862</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1789815183.860898</v>
+        <v>1828760219.661331</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1563358475285134</v>
+        <v>0.1697713115345588</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02295458634463105</v>
+        <v>0.02332127308367115</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5078265288.886141</v>
+        <v>4102629133.893854</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1437685722410983</v>
+        <v>0.13882843271431</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04360263708721604</v>
+        <v>0.04894702341155087</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3986552487.412494</v>
+        <v>2795091708.676282</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1489985132020921</v>
+        <v>0.1709441509147023</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03106788557855793</v>
+        <v>0.03808291302210378</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2606926687.569601</v>
+        <v>3235249091.509532</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1852883502547609</v>
+        <v>0.1212974156506908</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04098553717848541</v>
+        <v>0.05326300067002077</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4685728607.015768</v>
+        <v>3985886119.302166</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06523353404727404</v>
+        <v>0.09140100300949928</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02963861960460719</v>
+        <v>0.01923007627607306</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3504307291.258109</v>
+        <v>3804216668.275932</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1545818968893134</v>
+        <v>0.1866649843946439</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03566114043229273</v>
+        <v>0.0272075261360475</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1125001683.301674</v>
+        <v>1686010775.152039</v>
       </c>
       <c r="F15" t="n">
-        <v>0.100662747975889</v>
+        <v>0.08611162321979282</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04744577992506354</v>
+        <v>0.04638087754731088</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2243980841.0592</v>
+        <v>2384927357.736917</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08628891309270308</v>
+        <v>0.08086338529662074</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04313021899967837</v>
+        <v>0.04392147526390698</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3384399994.645694</v>
+        <v>3805850547.939708</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1602102633880658</v>
+        <v>0.1303205748086658</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04124390752605858</v>
+        <v>0.03409396974285182</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4015722798.899244</v>
+        <v>3600847675.204259</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1686081993410544</v>
+        <v>0.1356970103683836</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02897631062475169</v>
+        <v>0.03180664903178557</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1294562810.316617</v>
+        <v>1283982239.007816</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1860710925817634</v>
+        <v>0.176388448299837</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01652939923781895</v>
+        <v>0.01791709403283152</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2010021277.759152</v>
+        <v>2533203881.313569</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1572475503956657</v>
+        <v>0.1561381614651583</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03106868569597833</v>
+        <v>0.02119216945518489</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2074197909.353387</v>
+        <v>1970031232.184954</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07281135683834696</v>
+        <v>0.07607571892237722</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0363141383974102</v>
+        <v>0.03821790272738704</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3953150855.196249</v>
+        <v>3550495568.744709</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1361011677628708</v>
+        <v>0.09383391937711609</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04751959115951389</v>
+        <v>0.04574093266667768</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1206277959.448407</v>
+        <v>1260361476.873417</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1469223743057227</v>
+        <v>0.1281074520702366</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03513565254525818</v>
+        <v>0.0386350927991523</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3330385406.673745</v>
+        <v>3620932969.423317</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09819668557360708</v>
+        <v>0.09756249935823672</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02541890857214932</v>
+        <v>0.03759937116995116</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1056677418.928182</v>
+        <v>1152720275.09028</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1136552999191149</v>
+        <v>0.1147267124334436</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02664634657019611</v>
+        <v>0.03010572068573066</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1254622254.740487</v>
+        <v>1341966504.875656</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1249538991029163</v>
+        <v>0.1214600747903746</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0298900559900937</v>
+        <v>0.03831028240741159</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3725060384.287859</v>
+        <v>4020145166.558573</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1058815966257271</v>
+        <v>0.148016303357082</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02314945786190625</v>
+        <v>0.0255251696067266</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2917326089.888715</v>
+        <v>3179549281.404789</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1301138022627999</v>
+        <v>0.09458588510910597</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04169269914247738</v>
+        <v>0.04032924239825347</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3785832306.022668</v>
+        <v>4446154386.224515</v>
       </c>
       <c r="F29" t="n">
-        <v>0.122629544567542</v>
+        <v>0.1424965716657166</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04055642657814235</v>
+        <v>0.04547598886776371</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1545445200.854365</v>
+        <v>2212873094.710902</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1250096312270371</v>
+        <v>0.1023511612440811</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03305796634916604</v>
+        <v>0.03686252577305631</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1035397419.031101</v>
+        <v>1386086066.041976</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0795731756508159</v>
+        <v>0.1004139356636792</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04254544127127777</v>
+        <v>0.04695751605349577</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1282091790.080876</v>
+        <v>1221496093.329692</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09930408187668506</v>
+        <v>0.08463405118203332</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0349799455581815</v>
+        <v>0.03127632468893943</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2001813331.223917</v>
+        <v>2358403517.319798</v>
       </c>
       <c r="F33" t="n">
-        <v>0.134195772269013</v>
+        <v>0.1664380647996403</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04106054352953308</v>
+        <v>0.03811015969040998</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1075328943.36178</v>
+        <v>1241035296.595763</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09421931870169256</v>
+        <v>0.1139262119362652</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01734805132757851</v>
+        <v>0.01936835360831892</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1086800722.876856</v>
+        <v>1258885798.527024</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1100158854584312</v>
+        <v>0.08691895505178759</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03965773291300707</v>
+        <v>0.03321423672930973</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2356995966.905766</v>
+        <v>2403111004.58997</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1408851949198225</v>
+        <v>0.1366577691209857</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02210941445804404</v>
+        <v>0.02774957128287937</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2029030015.48334</v>
+        <v>1874806695.753875</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09677193721445528</v>
+        <v>0.1112670080522334</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03684812550253901</v>
+        <v>0.0399961683695128</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1520834203.184075</v>
+        <v>1339867168.330425</v>
       </c>
       <c r="F38" t="n">
-        <v>0.119696183174053</v>
+        <v>0.118227515103538</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03098760423196106</v>
+        <v>0.03098595993265678</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1888980284.121196</v>
+        <v>1732022075.07081</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1504265745788405</v>
+        <v>0.1426406388576484</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02442139377487965</v>
+        <v>0.02320582908404133</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1478412965.13339</v>
+        <v>1682349464.391256</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1119900319737335</v>
+        <v>0.1443880564502199</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04487323756744755</v>
+        <v>0.04818052958056799</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2410380898.930936</v>
+        <v>1992741210.914461</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1040363521700087</v>
+        <v>0.106726379477693</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03310609062445381</v>
+        <v>0.03511089801745647</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4109342822.798369</v>
+        <v>3331259640.908134</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1275184710559138</v>
+        <v>0.1033318616605188</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0454899286395673</v>
+        <v>0.03990350811323269</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2210167611.025887</v>
+        <v>2673807541.000733</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1457503995556449</v>
+        <v>0.1618929165437321</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01905299619897697</v>
+        <v>0.01838198299119205</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2053514722.996347</v>
+        <v>1973248248.328886</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09934809772861003</v>
+        <v>0.07429526713595638</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03366738448357445</v>
+        <v>0.03665323556652169</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1547079920.236269</v>
+        <v>2370547339.206882</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1593949215580379</v>
+        <v>0.1797849218945439</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04734900465694256</v>
+        <v>0.05163272944534266</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5439374378.67362</v>
+        <v>3576131157.181387</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1354709284286059</v>
+        <v>0.1376989178354334</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05321953031411657</v>
+        <v>0.05505065269965237</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4390229419.285748</v>
+        <v>4125099704.621499</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1702843071944932</v>
+        <v>0.1610692990284354</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04838365724701636</v>
+        <v>0.05733392776869618</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3614818127.346325</v>
+        <v>4598162319.037271</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07667332817315213</v>
+        <v>0.06645400736716219</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03378821232138608</v>
+        <v>0.03229711745831366</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1834272404.843368</v>
+        <v>1300623761.649661</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1578927963817358</v>
+        <v>0.1269562631382168</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03489041507109089</v>
+        <v>0.04434174164159647</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3458228595.683873</v>
+        <v>3127712573.431283</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1133743941662449</v>
+        <v>0.1496839907903994</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04136710175982194</v>
+        <v>0.05337877533261429</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1116573536.751411</v>
+        <v>1124334986.1258</v>
       </c>
       <c r="F51" t="n">
-        <v>0.137675079395055</v>
+        <v>0.1354840410045748</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03929968140393512</v>
+        <v>0.03527047802151662</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3429862343.563822</v>
+        <v>3437928785.309619</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1296378081736949</v>
+        <v>0.08857271008579599</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04750318913531804</v>
+        <v>0.04896679775301153</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2820254910.370018</v>
+        <v>2443379145.843567</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1725929675908249</v>
+        <v>0.1422248962847237</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02384669698488234</v>
+        <v>0.02717877357542924</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4949892242.680684</v>
+        <v>4021662929.675782</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1364073803206678</v>
+        <v>0.1628357004069116</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04972480961975171</v>
+        <v>0.04672764847487455</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3804229297.712099</v>
+        <v>4543531410.207553</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1674105583486214</v>
+        <v>0.2051608288161744</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02453082213960195</v>
+        <v>0.02372260485362173</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1186672776.364475</v>
+        <v>1758829985.773907</v>
       </c>
       <c r="F56" t="n">
-        <v>0.11464006296088</v>
+        <v>0.1100166361290689</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05317450794527436</v>
+        <v>0.04225754055744774</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4439491702.105191</v>
+        <v>3404282338.563231</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1210218445340926</v>
+        <v>0.1378696617205091</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01798075180707391</v>
+        <v>0.01777042138675235</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1440803969.240767</v>
+        <v>1741434098.914923</v>
       </c>
       <c r="F58" t="n">
-        <v>0.199696355362988</v>
+        <v>0.128492679651258</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03727648301742758</v>
+        <v>0.02846553747441014</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3489408993.120287</v>
+        <v>3652387274.687866</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1254433887358689</v>
+        <v>0.08392814460762951</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04397322943546281</v>
+        <v>0.04526089861317543</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2814153013.661228</v>
+        <v>2482002552.837371</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1503694200384861</v>
+        <v>0.1834517314019532</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02595168087432113</v>
+        <v>0.02672048185752397</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2891201162.796963</v>
+        <v>2156685782.102438</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1201259719232271</v>
+        <v>0.1102681630079808</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02322221835622461</v>
+        <v>0.02866241234056435</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1944803896.222071</v>
+        <v>1395390818.306562</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1262375530263573</v>
+        <v>0.1846784277359103</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03308482373869506</v>
+        <v>0.03404042222069036</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3453468700.025122</v>
+        <v>4270092735.860952</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08301702257427163</v>
+        <v>0.07352190465315674</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04188703487385675</v>
+        <v>0.04240707865266295</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5275226466.021123</v>
+        <v>4878207934.345373</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1328341297182376</v>
+        <v>0.1322501026700628</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02189286752242845</v>
+        <v>0.032431106928543</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3888748927.688483</v>
+        <v>4174965528.136914</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1526055785021517</v>
+        <v>0.1566926270189925</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02650651376836458</v>
+        <v>0.02635049434586904</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4471579644.762471</v>
+        <v>4153117199.346621</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1328841224528749</v>
+        <v>0.1259620149024737</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04086065955446083</v>
+        <v>0.05013646503261508</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2979843495.832649</v>
+        <v>2869750591.972662</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08880360567815483</v>
+        <v>0.07222693708487127</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04897028032272607</v>
+        <v>0.04625021349250982</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4747756248.478124</v>
+        <v>5724434190.262115</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1427418651955213</v>
+        <v>0.1452762746570903</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03410262812619497</v>
+        <v>0.04343965845367277</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2054346698.908322</v>
+        <v>1737483783.760933</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1476084646890851</v>
+        <v>0.135946314959291</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03817641084853048</v>
+        <v>0.04034087915488441</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3552696445.983895</v>
+        <v>3000535435.519207</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06543393987078888</v>
+        <v>0.08877219062154505</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04865935374970719</v>
+        <v>0.04185990991010893</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4307673140.112953</v>
+        <v>4087002622.008778</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1212366351897646</v>
+        <v>0.1205255390370234</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02063705879626623</v>
+        <v>0.03403985009605163</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2249048189.602409</v>
+        <v>1605610206.072404</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0765653223437919</v>
+        <v>0.06637909248385854</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03779907380703758</v>
+        <v>0.04792115392929484</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2975918354.646547</v>
+        <v>3003617251.791745</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1026956561573724</v>
+        <v>0.07130333949097807</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05129912370654927</v>
+        <v>0.04750423799862905</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3660225887.877986</v>
+        <v>3858894177.321829</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1368584617919799</v>
+        <v>0.1359347231611574</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02417552670867138</v>
+        <v>0.02715623334388077</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1877155336.686024</v>
+        <v>1555885325.723135</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1472768417268097</v>
+        <v>0.1589736202093188</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03001201115371764</v>
+        <v>0.02573857221596602</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3408298484.979947</v>
+        <v>4202492948.882212</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1123403182013474</v>
+        <v>0.08896430278859187</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03380559281812792</v>
+        <v>0.02713356212268115</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1824523783.324418</v>
+        <v>1962118854.242466</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1160823985093859</v>
+        <v>0.1411791091922396</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02922471754366743</v>
+        <v>0.02989874743513096</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3228483971.986027</v>
+        <v>4333809656.211805</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1170297461415978</v>
+        <v>0.09738790078014764</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03638861704719087</v>
+        <v>0.05145852373116183</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1472642409.963037</v>
+        <v>1753867076.601977</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1190340642653337</v>
+        <v>0.1301277164583404</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03613961468408119</v>
+        <v>0.02607531375972973</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5238084246.271569</v>
+        <v>4756491556.352099</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07928799650514805</v>
+        <v>0.1109861349250001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03451822544559433</v>
+        <v>0.0280226831868588</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3216105828.833321</v>
+        <v>5125168862.521175</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1315095004232964</v>
+        <v>0.08855842405223543</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03118019791161755</v>
+        <v>0.02980189818314401</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4046547874.013039</v>
+        <v>5214590953.876442</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1515325867929532</v>
+        <v>0.1771939077968775</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02009100739097839</v>
+        <v>0.01990133681826457</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1856584572.733978</v>
+        <v>2455138465.628593</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1435622866737958</v>
+        <v>0.1114652871434118</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03614396159627335</v>
+        <v>0.04011630209994716</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2417982091.05398</v>
+        <v>2088627839.159584</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1106792703152614</v>
+        <v>0.08717181198619092</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05004781716973138</v>
+        <v>0.05017623746370501</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2913299249.509981</v>
+        <v>3652473851.675451</v>
       </c>
       <c r="F85" t="n">
-        <v>0.184914844443316</v>
+        <v>0.169172893029121</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05391858813640381</v>
+        <v>0.0416021565574489</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1726499592.711679</v>
+        <v>2406182240.51558</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1279414135501185</v>
+        <v>0.119580862916215</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02557369701347162</v>
+        <v>0.01658438584437865</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1115456858.118358</v>
+        <v>1302113732.930687</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1215393499139909</v>
+        <v>0.1259375794852411</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03233868161059704</v>
+        <v>0.03101808485902702</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2866999756.710548</v>
+        <v>3239122645.851344</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1141691744081676</v>
+        <v>0.120930345643868</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02499513836523199</v>
+        <v>0.03065935793103179</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2462418361.889034</v>
+        <v>3386568735.507102</v>
       </c>
       <c r="F89" t="n">
-        <v>0.138792926403829</v>
+        <v>0.1354931762503098</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03158590809467023</v>
+        <v>0.02656278289152004</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1352328561.875288</v>
+        <v>1587944958.009427</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1030013631177076</v>
+        <v>0.1150728614305398</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03462354947552491</v>
+        <v>0.03453190025560083</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1403456467.3797</v>
+        <v>1339007228.860801</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1935977412275616</v>
+        <v>0.1267337346406274</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04363283535629564</v>
+        <v>0.059335980724458</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2502956261.679649</v>
+        <v>2448995499.680087</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09106584185107297</v>
+        <v>0.08093428688221342</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04404952332714442</v>
+        <v>0.0467892601341536</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3302028937.375549</v>
+        <v>4732625279.728793</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1250469015051033</v>
+        <v>0.08615237906871287</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03363828098409839</v>
+        <v>0.05158179614332766</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2521800526.382155</v>
+        <v>1817902660.575292</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1681201067371191</v>
+        <v>0.1510753017378292</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03232063404483609</v>
+        <v>0.03393926347318756</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2011123371.300832</v>
+        <v>2066601567.123924</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09370104953591649</v>
+        <v>0.1329540564770291</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05065178442753427</v>
+        <v>0.04235673783697877</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1964725809.099054</v>
+        <v>1523938998.687349</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1224332112934591</v>
+        <v>0.1350401691912885</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03919191890740963</v>
+        <v>0.03926530340637384</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3363487635.772711</v>
+        <v>4502670782.586551</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1744606319781212</v>
+        <v>0.1542957793289836</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02402168454942676</v>
+        <v>0.02860881504902328</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2802534739.337945</v>
+        <v>2846873243.116511</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08267658908604196</v>
+        <v>0.1298044960107495</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02786817386132296</v>
+        <v>0.03240687391829774</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2958352662.369237</v>
+        <v>2696161885.486271</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1089241952120624</v>
+        <v>0.1209999681666014</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0324112902361549</v>
+        <v>0.03293600806577306</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4800489541.689028</v>
+        <v>4197621523.981198</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1543511650828451</v>
+        <v>0.128089856860854</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02198016768951882</v>
+        <v>0.0172130024693356</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3399195518.432737</v>
+        <v>2962350493.108748</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1546576019590419</v>
+        <v>0.1489376847912894</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03632109577161092</v>
+        <v>0.03738246849308836</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_330.xlsx
+++ b/output/fit_clients/fit_round_330.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1562424847.384983</v>
+        <v>2048587049.83481</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1009408274480027</v>
+        <v>0.08597979734722225</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03765027033321774</v>
+        <v>0.04415646275245032</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1985845452.225793</v>
+        <v>2231589622.75643</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1180013314807289</v>
+        <v>0.1194925007886028</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03248511536525384</v>
+        <v>0.03908898979589917</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4195323879.877203</v>
+        <v>4235347641.686047</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1275357048975187</v>
+        <v>0.1277794094460406</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0269083092622998</v>
+        <v>0.03738289466560774</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>171</v>
+      </c>
+      <c r="J4" t="n">
+        <v>330</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3638115459.271836</v>
+        <v>3176129951.119857</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07768877787205916</v>
+        <v>0.1098437604248969</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03263527745570968</v>
+        <v>0.03258809858271109</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>132</v>
+      </c>
+      <c r="J5" t="n">
+        <v>329</v>
+      </c>
+      <c r="K5" t="n">
+        <v>58.55811742024677</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2732692453.708661</v>
+        <v>2704593404.551722</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1311375869902034</v>
+        <v>0.1199788487711484</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05479343198251869</v>
+        <v>0.03900629267774569</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3123164635.874639</v>
+        <v>2140353242.890953</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08680356938066452</v>
+        <v>0.08208317348248582</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03719606804153264</v>
+        <v>0.04422829731422644</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2962264774.846121</v>
+        <v>2476664565.542047</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2039593527287701</v>
+        <v>0.182911637005218</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02181029840050862</v>
+        <v>0.02021045811696504</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>327</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1828760219.661331</v>
+        <v>1776328466.152842</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1697713115345588</v>
+        <v>0.1667774331110028</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02332127308367115</v>
+        <v>0.03280144614134027</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4102629133.893854</v>
+        <v>5864986275.061048</v>
       </c>
       <c r="F10" t="n">
-        <v>0.13882843271431</v>
+        <v>0.1549576142848474</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04894702341155087</v>
+        <v>0.04114835101320827</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>284</v>
+      </c>
+      <c r="J10" t="n">
+        <v>330</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2795091708.676282</v>
+        <v>3372265041.748424</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1709441509147023</v>
+        <v>0.1896239774846297</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03808291302210378</v>
+        <v>0.04675182631156741</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>134</v>
+      </c>
+      <c r="J11" t="n">
+        <v>329</v>
+      </c>
+      <c r="K11" t="n">
+        <v>61.46019991745166</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3235249091.509532</v>
+        <v>2618364059.123234</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1212974156506908</v>
+        <v>0.1814336605936598</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05326300067002077</v>
+        <v>0.0392201828042105</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3985886119.302166</v>
+        <v>4385676300.193196</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09140100300949928</v>
+        <v>0.07505232804340145</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01923007627607306</v>
+        <v>0.02061228375794659</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>172</v>
+      </c>
+      <c r="J13" t="n">
+        <v>329</v>
+      </c>
+      <c r="K13" t="n">
+        <v>70.23187602646915</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3804216668.275932</v>
+        <v>2430447664.268395</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1866649843946439</v>
+        <v>0.1305096101071784</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0272075261360475</v>
+        <v>0.03356823134621295</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>67</v>
+      </c>
+      <c r="J14" t="n">
+        <v>325</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1686010775.152039</v>
+        <v>1181361406.690461</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08611162321979282</v>
+        <v>0.08765817205749439</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04638087754731088</v>
+        <v>0.04413711471218398</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2384927357.736917</v>
+        <v>1969723847.555395</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08086338529662074</v>
+        <v>0.08064528979304808</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04392147526390698</v>
+        <v>0.04073276676698163</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3805850547.939708</v>
+        <v>3641289153.718409</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1303205748086658</v>
+        <v>0.1589832512472322</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03409396974285182</v>
+        <v>0.03446147248849692</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>155</v>
+      </c>
+      <c r="J17" t="n">
+        <v>329</v>
+      </c>
+      <c r="K17" t="n">
+        <v>60.72201185010385</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3600847675.204259</v>
+        <v>2672861725.429283</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1356970103683836</v>
+        <v>0.1521163700721767</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03180664903178557</v>
+        <v>0.0329387731473877</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>82</v>
+      </c>
+      <c r="J18" t="n">
+        <v>329</v>
+      </c>
+      <c r="K18" t="n">
+        <v>38.87598588788268</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1283982239.007816</v>
+        <v>885668651.1075683</v>
       </c>
       <c r="F19" t="n">
-        <v>0.176388448299837</v>
+        <v>0.1403189295989725</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01791709403283152</v>
+        <v>0.01728430427065836</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2533203881.313569</v>
+        <v>2140971514.706406</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1561381614651583</v>
+        <v>0.1402963731039471</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02119216945518489</v>
+        <v>0.02038873464877717</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1970031232.184954</v>
+        <v>1956723790.54662</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07607571892237722</v>
+        <v>0.09581264620049632</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03821790272738704</v>
+        <v>0.02834344907099417</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3550495568.744709</v>
+        <v>3704686618.591754</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09383391937711609</v>
+        <v>0.1001265497599214</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04574093266667768</v>
+        <v>0.04966891901572842</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>90</v>
+      </c>
+      <c r="J22" t="n">
+        <v>330</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1260361476.873417</v>
+        <v>1285244619.51662</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1281074520702366</v>
+        <v>0.1841261098207018</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0386350927991523</v>
+        <v>0.05455188065426973</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3620932969.423317</v>
+        <v>3841235922.570145</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09756249935823672</v>
+        <v>0.1251640195888683</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03759937116995116</v>
+        <v>0.03158700612340774</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>97</v>
+      </c>
+      <c r="J24" t="n">
+        <v>330</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1152720275.09028</v>
+        <v>1003545364.359917</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1147267124334436</v>
+        <v>0.08982250284563835</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03010572068573066</v>
+        <v>0.02087405835498356</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1341966504.875656</v>
+        <v>1067972671.20803</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1214600747903746</v>
+        <v>0.1221316525014843</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03831028240741159</v>
+        <v>0.03084399601428925</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4020145166.558573</v>
+        <v>3828157209.969752</v>
       </c>
       <c r="F27" t="n">
-        <v>0.148016303357082</v>
+        <v>0.1218573293495101</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0255251696067266</v>
+        <v>0.02167636119975483</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>137</v>
+      </c>
+      <c r="J27" t="n">
+        <v>329</v>
+      </c>
+      <c r="K27" t="n">
+        <v>67.17163893269299</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3179549281.404789</v>
+        <v>2923766902.045418</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09458588510910597</v>
+        <v>0.1177647353441154</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04032924239825347</v>
+        <v>0.04338697607618362</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>71</v>
+      </c>
+      <c r="J28" t="n">
+        <v>327</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1452,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4446154386.224515</v>
+        <v>5828528494.577738</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1424965716657166</v>
+        <v>0.1344106595266263</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04547598886776371</v>
+        <v>0.03578599920394061</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>301</v>
+      </c>
+      <c r="J29" t="n">
+        <v>330</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2212873094.710902</v>
+        <v>2256753831.201946</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1023511612440811</v>
+        <v>0.1278237379996464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03686252577305631</v>
+        <v>0.02993093463236741</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1386086066.041976</v>
+        <v>1243774415.091115</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1004139356636792</v>
+        <v>0.09116074176852536</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04695751605349577</v>
+        <v>0.05016678922894061</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1221496093.329692</v>
+        <v>1209936677.9038</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08463405118203332</v>
+        <v>0.1101935184727008</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03127632468893943</v>
+        <v>0.02879219956565577</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2358403517.319798</v>
+        <v>2873508520.121367</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1664380647996403</v>
+        <v>0.2067961284405542</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03811015969040998</v>
+        <v>0.03796586248714068</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1241035296.595763</v>
+        <v>1536695395.928454</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1139262119362652</v>
+        <v>0.07683944958400442</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01936835360831892</v>
+        <v>0.02640602436570532</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1258885798.527024</v>
+        <v>1082950053.990444</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08691895505178759</v>
+        <v>0.1007053574481712</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03321423672930973</v>
+        <v>0.03712001634598326</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2403111004.58997</v>
+        <v>2772905622.847245</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1366577691209857</v>
+        <v>0.1280125722279845</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02774957128287937</v>
+        <v>0.02321815487261428</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1874806695.753875</v>
+        <v>2685368056.547572</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1112670080522334</v>
+        <v>0.07078944067661112</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0399961683695128</v>
+        <v>0.0336647536191301</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1339867168.330425</v>
+        <v>1615879754.743573</v>
       </c>
       <c r="F38" t="n">
-        <v>0.118227515103538</v>
+        <v>0.104685268795166</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03098595993265678</v>
+        <v>0.03408460453247199</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1732022075.07081</v>
+        <v>1994118541.127745</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1426406388576484</v>
+        <v>0.1862648064835802</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02320582908404133</v>
+        <v>0.02333514144725161</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1682349464.391256</v>
+        <v>1231685624.141153</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1443880564502199</v>
+        <v>0.1626645149444288</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04818052958056799</v>
+        <v>0.03928796356377137</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1992741210.914461</v>
+        <v>1944617915.836154</v>
       </c>
       <c r="F41" t="n">
-        <v>0.106726379477693</v>
+        <v>0.1550519790497813</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03511089801745647</v>
+        <v>0.03632999846486689</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3331259640.908134</v>
+        <v>2799139061.209109</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1033318616605188</v>
+        <v>0.07739859544832658</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03990350811323269</v>
+        <v>0.02910152235378651</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>139</v>
+      </c>
+      <c r="J42" t="n">
+        <v>329</v>
+      </c>
+      <c r="K42" t="n">
+        <v>41.53527762408032</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2673807541.000733</v>
+        <v>2498682667.849754</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1618929165437321</v>
+        <v>0.1664837438831225</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01838198299119205</v>
+        <v>0.02249320415977867</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1973248248.328886</v>
+        <v>1994825097.921138</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07429526713595638</v>
+        <v>0.07918111737432909</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03665323556652169</v>
+        <v>0.03421003777029819</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2370547339.206882</v>
+        <v>2088878500.249577</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1797849218945439</v>
+        <v>0.1878119928446863</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05163272944534266</v>
+        <v>0.04855866510422481</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3576131157.181387</v>
+        <v>5170600935.777808</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1376989178354334</v>
+        <v>0.1176739594030769</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05505065269965237</v>
+        <v>0.04066480504857639</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>197</v>
+      </c>
+      <c r="J46" t="n">
+        <v>329</v>
+      </c>
+      <c r="K46" t="n">
+        <v>71.98656299579122</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4125099704.621499</v>
+        <v>4071440572.051506</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1610692990284354</v>
+        <v>0.1409478276778899</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05733392776869618</v>
+        <v>0.05460995323938832</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>147</v>
+      </c>
+      <c r="J47" t="n">
+        <v>330</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4598162319.037271</v>
+        <v>4637393957.04561</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06645400736716219</v>
+        <v>0.08408300200560229</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03229711745831366</v>
+        <v>0.0290914249411267</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>164</v>
+      </c>
+      <c r="J48" t="n">
+        <v>330</v>
+      </c>
+      <c r="K48" t="n">
+        <v>80.23991880147308</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1300623761.649661</v>
+        <v>1223520636.325956</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1269562631382168</v>
+        <v>0.1879792498302834</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04434174164159647</v>
+        <v>0.04456617486930615</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3127712573.431283</v>
+        <v>3807857986.651578</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1496839907903994</v>
+        <v>0.1731221456156639</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05337877533261429</v>
+        <v>0.04479367377210768</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>108</v>
+      </c>
+      <c r="J50" t="n">
+        <v>330</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1124334986.1258</v>
+        <v>986266171.4709853</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1354840410045748</v>
+        <v>0.1504886080016329</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03527047802151662</v>
+        <v>0.04447655684853424</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3437928785.309619</v>
+        <v>4134569944.73768</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08857271008579599</v>
+        <v>0.1217849167241338</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04896679775301153</v>
+        <v>0.03938837305699813</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>199</v>
+      </c>
+      <c r="J52" t="n">
+        <v>330</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2443379145.843567</v>
+        <v>3023067807.039318</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1422248962847237</v>
+        <v>0.166444858068669</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02717877357542924</v>
+        <v>0.03123300668244521</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>321</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4021662929.675782</v>
+        <v>3918382012.141949</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1628357004069116</v>
+        <v>0.1623007033189346</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04672764847487455</v>
+        <v>0.03359099163039144</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>173</v>
+      </c>
+      <c r="J54" t="n">
+        <v>330</v>
+      </c>
+      <c r="K54" t="n">
+        <v>72.45085782788355</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4543531410.207553</v>
+        <v>3513906735.027365</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2051608288161744</v>
+        <v>0.1358727110700926</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02372260485362173</v>
+        <v>0.02468516464175497</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>156</v>
+      </c>
+      <c r="J55" t="n">
+        <v>329</v>
+      </c>
+      <c r="K55" t="n">
+        <v>59.19682558744171</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1758829985.773907</v>
+        <v>1419750915.487374</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1100166361290689</v>
+        <v>0.1600776503821392</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04225754055744774</v>
+        <v>0.05299031798857476</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2448,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3404282338.563231</v>
+        <v>3578740430.789057</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1378696617205091</v>
+        <v>0.1258002597221179</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01777042138675235</v>
+        <v>0.02016079277082637</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>135</v>
+      </c>
+      <c r="J57" t="n">
+        <v>329</v>
+      </c>
+      <c r="K57" t="n">
+        <v>62.61911089307323</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1741434098.914923</v>
+        <v>1448287584.245881</v>
       </c>
       <c r="F58" t="n">
-        <v>0.128492679651258</v>
+        <v>0.1452893224524871</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02846553747441014</v>
+        <v>0.0345513375179092</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3652387274.687866</v>
+        <v>3506075803.514157</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08392814460762951</v>
+        <v>0.09503321988861373</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04526089861317543</v>
+        <v>0.04586295373253441</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>159</v>
+      </c>
+      <c r="J59" t="n">
+        <v>328</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2482002552.837371</v>
+        <v>3607377700.285641</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1834517314019532</v>
+        <v>0.1752322889372709</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02672048185752397</v>
+        <v>0.02460181695903116</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>57</v>
+      </c>
+      <c r="J60" t="n">
+        <v>330</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2156685782.102438</v>
+        <v>3408489685.305981</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1102681630079808</v>
+        <v>0.1520303159930645</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02866241234056435</v>
+        <v>0.02339579692379142</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1395390818.306562</v>
+        <v>1955720634.280756</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1846784277359103</v>
+        <v>0.1345659991961937</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03404042222069036</v>
+        <v>0.04628248852779013</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4270092735.860952</v>
+        <v>5517102893.559031</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07352190465315674</v>
+        <v>0.1012331448439436</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04240707865266295</v>
+        <v>0.04238836394831887</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>160</v>
+      </c>
+      <c r="J63" t="n">
+        <v>330</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2695,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4878207934.345373</v>
+        <v>4718268220.36259</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1322501026700628</v>
+        <v>0.160482920275988</v>
       </c>
       <c r="G64" t="n">
-        <v>0.032431106928543</v>
+        <v>0.03569833690205322</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>163</v>
+      </c>
+      <c r="J64" t="n">
+        <v>329</v>
+      </c>
+      <c r="K64" t="n">
+        <v>70.57754126918535</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4174965528.136914</v>
+        <v>5237254226.241829</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1566926270189925</v>
+        <v>0.1132782441637769</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02635049434586904</v>
+        <v>0.02318839007817754</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>258</v>
+      </c>
+      <c r="J65" t="n">
+        <v>330</v>
+      </c>
+      <c r="K65" t="n">
+        <v>72.16708478363432</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4153117199.346621</v>
+        <v>4025302083.11988</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1259620149024737</v>
+        <v>0.1349022862312679</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05013646503261508</v>
+        <v>0.04136361702341221</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>163</v>
+      </c>
+      <c r="J66" t="n">
+        <v>329</v>
+      </c>
+      <c r="K66" t="n">
+        <v>66.23501390602355</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2869750591.972662</v>
+        <v>3150138403.560748</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07222693708487127</v>
+        <v>0.06751516798058534</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04625021349250982</v>
+        <v>0.03788947730458797</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5724434190.262115</v>
+        <v>5090493119.975132</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1452762746570903</v>
+        <v>0.1069984526062928</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04343965845367277</v>
+        <v>0.03387680936941364</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>179</v>
+      </c>
+      <c r="J68" t="n">
+        <v>329</v>
+      </c>
+      <c r="K68" t="n">
+        <v>70.11254869372077</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1737483783.760933</v>
+        <v>2414982563.83535</v>
       </c>
       <c r="F69" t="n">
-        <v>0.135946314959291</v>
+        <v>0.154964587852247</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04034087915488441</v>
+        <v>0.04302391162625296</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2913,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3000535435.519207</v>
+        <v>3447981213.035795</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08877219062154505</v>
+        <v>0.08302259178853207</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04185990991010893</v>
+        <v>0.03477691208156362</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>49</v>
+      </c>
+      <c r="J70" t="n">
+        <v>323</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2948,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4087002622.008778</v>
+        <v>5285649716.322981</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1205255390370234</v>
+        <v>0.125687466624291</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03403985009605163</v>
+        <v>0.02250543050226899</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>243</v>
+      </c>
+      <c r="J71" t="n">
+        <v>330</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1605610206.072404</v>
+        <v>1420507415.590387</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06637909248385854</v>
+        <v>0.090311134500225</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04792115392929484</v>
+        <v>0.03618726084803769</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3003617251.791745</v>
+        <v>2322420887.658787</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07130333949097807</v>
+        <v>0.08843253744680682</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04750423799862905</v>
+        <v>0.05226904980898332</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3858894177.321829</v>
+        <v>2593253303.054082</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1359347231611574</v>
+        <v>0.1616689774846193</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02715623334388077</v>
+        <v>0.02293732524348055</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>87</v>
+      </c>
+      <c r="J74" t="n">
+        <v>328</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1555885325.723135</v>
+        <v>1571900140.460346</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1589736202093188</v>
+        <v>0.1643685326286435</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02573857221596602</v>
+        <v>0.02576739121869476</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4202492948.882212</v>
+        <v>3879561353.394</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08896430278859187</v>
+        <v>0.109731652442266</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02713356212268115</v>
+        <v>0.02564791147901751</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>155</v>
+      </c>
+      <c r="J76" t="n">
+        <v>330</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1962118854.242466</v>
+        <v>1819452067.285926</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1411791091922396</v>
+        <v>0.1293730773619613</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02989874743513096</v>
+        <v>0.01997056906849702</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4333809656.211805</v>
+        <v>4513999308.949454</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09738790078014764</v>
+        <v>0.1072436018165001</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05145852373116183</v>
+        <v>0.04388509755513485</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>162</v>
+      </c>
+      <c r="J78" t="n">
+        <v>330</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1753867076.601977</v>
+        <v>1598054157.114504</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1301277164583404</v>
+        <v>0.1651039583803186</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02607531375972973</v>
+        <v>0.03665481268936754</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4756491556.352099</v>
+        <v>5174331563.19324</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1109861349250001</v>
+        <v>0.08118917512544596</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0280226831868588</v>
+        <v>0.02814349834626996</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>161</v>
+      </c>
+      <c r="J80" t="n">
+        <v>330</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3298,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5125168862.521175</v>
+        <v>4377101689.623476</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08855842405223543</v>
+        <v>0.08942212843129189</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02980189818314401</v>
+        <v>0.0248956484687749</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>152</v>
+      </c>
+      <c r="J81" t="n">
+        <v>329</v>
+      </c>
+      <c r="K81" t="n">
+        <v>64.89569856074964</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5214590953.876442</v>
+        <v>5466068626.024985</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1771939077968775</v>
+        <v>0.1549001226885948</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01990133681826457</v>
+        <v>0.02346262278397778</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>237</v>
+      </c>
+      <c r="J82" t="n">
+        <v>330</v>
+      </c>
+      <c r="K82" t="n">
+        <v>72.20626890978356</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2455138465.628593</v>
+        <v>2440015264.639095</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1114652871434118</v>
+        <v>0.1022765090751184</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04011630209994716</v>
+        <v>0.03998647043264839</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2088627839.159584</v>
+        <v>2214854998.554836</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08717181198619092</v>
+        <v>0.09126583095283</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05017623746370501</v>
+        <v>0.05239250727318695</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3652473851.675451</v>
+        <v>2825840744.135568</v>
       </c>
       <c r="F85" t="n">
-        <v>0.169172893029121</v>
+        <v>0.1571261268347611</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0416021565574489</v>
+        <v>0.05392301459220041</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>43</v>
+      </c>
+      <c r="J85" t="n">
+        <v>322</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2406182240.51558</v>
+        <v>1848063209.049268</v>
       </c>
       <c r="F86" t="n">
-        <v>0.119580862916215</v>
+        <v>0.1060172256258775</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01658438584437865</v>
+        <v>0.02430756124617823</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1302113732.930687</v>
+        <v>919850535.3762693</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1259375794852411</v>
+        <v>0.1543188382943917</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03101808485902702</v>
+        <v>0.03668681927632939</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3239122645.851344</v>
+        <v>2844152727.291454</v>
       </c>
       <c r="F88" t="n">
-        <v>0.120930345643868</v>
+        <v>0.1537863914919286</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03065935793103179</v>
+        <v>0.03207112716501941</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>45</v>
+      </c>
+      <c r="J88" t="n">
+        <v>321</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3386568735.507102</v>
+        <v>3008952467.162415</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1354931762503098</v>
+        <v>0.1148717657861962</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02656278289152004</v>
+        <v>0.02702216076640439</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+      <c r="J89" t="n">
+        <v>326</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1587944958.009427</v>
+        <v>1544788442.71037</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1150728614305398</v>
+        <v>0.1155558590262127</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03453190025560083</v>
+        <v>0.05206932284940852</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1339007228.860801</v>
+        <v>1668794644.954304</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1267337346406274</v>
+        <v>0.1579355341755592</v>
       </c>
       <c r="G91" t="n">
-        <v>0.059335980724458</v>
+        <v>0.05396693198106326</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2448995499.680087</v>
+        <v>2278268163.244729</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08093428688221342</v>
+        <v>0.1032582504387427</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0467892601341536</v>
+        <v>0.04502348127530102</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4732625279.728793</v>
+        <v>4261135697.389167</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08615237906871287</v>
+        <v>0.1295265040747538</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05158179614332766</v>
+        <v>0.04986960046292716</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>150</v>
+      </c>
+      <c r="J93" t="n">
+        <v>330</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1817902660.575292</v>
+        <v>2247454775.356136</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1510753017378292</v>
+        <v>0.1472751076937089</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03393926347318756</v>
+        <v>0.04032089019269121</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2066601567.123924</v>
+        <v>2230246165.14441</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1329540564770291</v>
+        <v>0.1165155352355087</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04235673783697877</v>
+        <v>0.0408869296625524</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1523938998.687349</v>
+        <v>1449939634.736739</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1350401691912885</v>
+        <v>0.1216413408735399</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03926530340637384</v>
+        <v>0.04082930214725214</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4502670782.586551</v>
+        <v>3357694044.29804</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1542957793289836</v>
+        <v>0.1581366210503261</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02860881504902328</v>
+        <v>0.02466360138719649</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>169</v>
+      </c>
+      <c r="J97" t="n">
+        <v>329</v>
+      </c>
+      <c r="K97" t="n">
+        <v>53.58904975050189</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2846873243.116511</v>
+        <v>3155839111.57763</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1298044960107495</v>
+        <v>0.07900696755748056</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03240687391829774</v>
+        <v>0.02223454806198444</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>82</v>
+      </c>
+      <c r="J98" t="n">
+        <v>328</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2696161885.486271</v>
+        <v>2998363352.623117</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1209999681666014</v>
+        <v>0.1405264583131685</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03293600806577306</v>
+        <v>0.02638664405333204</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4197621523.981198</v>
+        <v>4550595601.291751</v>
       </c>
       <c r="F100" t="n">
-        <v>0.128089856860854</v>
+        <v>0.1614128486159769</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0172130024693356</v>
+        <v>0.02750555220545445</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>147</v>
+      </c>
+      <c r="J100" t="n">
+        <v>330</v>
+      </c>
+      <c r="K100" t="n">
+        <v>73.29619402436009</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2962350493.108748</v>
+        <v>3411665195.828716</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1489376847912894</v>
+        <v>0.2023258685622157</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03738246849308836</v>
+        <v>0.05577453323353142</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>30</v>
+      </c>
+      <c r="J101" t="n">
+        <v>328</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
